--- a/challenge#5/data.xlsx
+++ b/challenge#5/data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LSuwayan\Desktop\Fall 2015\EC544\EC544_Group4\challenge#5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25596" windowHeight="14304" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>beacon1</t>
   </si>
@@ -56,6 +61,9 @@
   <si>
     <t>340 cells</t>
   </si>
+  <si>
+    <t>Cell</t>
+  </si>
 </sst>
 </file>
 
@@ -86,20 +94,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -114,9 +143,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -131,6 +166,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -456,15 +499,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:O166"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.19921875" style="3"/>
+    <col min="8" max="9" width="11.19921875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,14 +527,17 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>43</v>
       </c>
@@ -503,13 +553,13 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2">
@@ -519,521 +569,2408 @@
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
-      <c r="G4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>71</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>47</v>
+      </c>
+      <c r="D4">
+        <v>49</v>
+      </c>
+      <c r="E4">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
-      <c r="G5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>74</v>
+      </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
-      <c r="G6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>78</v>
+      </c>
+      <c r="B6">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>55</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="G7">
+      <c r="I6" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>58</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="G7" s="3">
+        <v>6</v>
+      </c>
+      <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
-      <c r="G8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>87</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>50</v>
+      </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="G8" s="3">
+        <v>7</v>
+      </c>
+      <c r="H8" s="2">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>60</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
-      <c r="G9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>79</v>
+      </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>70</v>
       </c>
       <c r="O9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
-      <c r="G10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>78</v>
+      </c>
+      <c r="B10">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>48</v>
+      </c>
+      <c r="E10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="G10" s="3">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>80</v>
       </c>
       <c r="O10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
-      <c r="G11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
+      <c r="D11">
+        <v>44</v>
+      </c>
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="G11" s="3">
+        <v>10</v>
+      </c>
+      <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>90</v>
       </c>
       <c r="O11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
-      <c r="G12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>42</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="G12" s="3">
+        <v>11</v>
+      </c>
+      <c r="H12" s="2">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
-      <c r="G13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>84</v>
+      </c>
+      <c r="B13">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>47</v>
+      </c>
+      <c r="D13">
+        <v>35</v>
+      </c>
+      <c r="E13">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="G13" s="3">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
-      <c r="G14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>47</v>
+      </c>
+      <c r="C14">
+        <v>40</v>
+      </c>
+      <c r="D14">
+        <v>34</v>
+      </c>
+      <c r="E14">
         <v>13</v>
       </c>
-      <c r="H14">
+      <c r="G14" s="3">
+        <v>13</v>
+      </c>
+      <c r="H14" s="2">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
-      <c r="G15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>79</v>
+      </c>
+      <c r="B15">
+        <v>46</v>
+      </c>
+      <c r="C15">
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
         <v>14</v>
       </c>
-      <c r="H15">
+      <c r="G15" s="3">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
-      <c r="G16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>81</v>
+      </c>
+      <c r="B16">
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>45</v>
+      </c>
+      <c r="D16">
+        <v>31</v>
+      </c>
+      <c r="E16">
         <v>15</v>
       </c>
-      <c r="H16">
+      <c r="G16" s="3">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="7:9">
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>56</v>
+      </c>
+      <c r="B17">
+        <v>58</v>
+      </c>
+      <c r="C17">
+        <v>52</v>
+      </c>
+      <c r="D17">
+        <v>58</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="G17" s="3">
+        <v>19</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" s="2">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="18" spans="7:9">
-      <c r="G18">
-        <v>17</v>
-      </c>
-      <c r="H18">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>65</v>
+      </c>
+      <c r="B18">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>55</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3">
+        <v>20</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>64</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+      <c r="C19">
+        <v>66</v>
+      </c>
+      <c r="D19">
+        <v>54</v>
+      </c>
+      <c r="E19">
+        <v>21</v>
+      </c>
+      <c r="G19" s="3">
+        <v>21</v>
+      </c>
+      <c r="H19" s="2">
+        <v>20</v>
+      </c>
+      <c r="I19" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>66</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="G20" s="3">
+        <v>22</v>
+      </c>
+      <c r="H20" s="2">
+        <v>20</v>
+      </c>
+      <c r="I20" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>63</v>
+      </c>
+      <c r="B21">
+        <v>65</v>
+      </c>
+      <c r="C21">
+        <v>57</v>
+      </c>
+      <c r="D21">
+        <v>51</v>
+      </c>
+      <c r="E21">
+        <v>23</v>
+      </c>
+      <c r="G21" s="3">
+        <v>23</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+      <c r="I21" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>66</v>
+      </c>
+      <c r="B22">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>52</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="G22" s="3">
+        <v>24</v>
+      </c>
+      <c r="H22" s="2">
+        <v>20</v>
+      </c>
+      <c r="I22" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>47</v>
+      </c>
+      <c r="C23">
+        <v>42</v>
+      </c>
+      <c r="D23">
+        <v>43</v>
+      </c>
+      <c r="E23">
+        <v>25</v>
+      </c>
+      <c r="G23" s="3">
+        <v>25</v>
+      </c>
+      <c r="H23" s="2">
+        <v>20</v>
+      </c>
+      <c r="I23" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>64</v>
+      </c>
+      <c r="B24">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>48</v>
+      </c>
+      <c r="D24">
+        <v>42</v>
+      </c>
+      <c r="E24">
+        <v>26</v>
+      </c>
+      <c r="G24" s="3">
+        <v>26</v>
+      </c>
+      <c r="H24" s="2">
+        <v>20</v>
+      </c>
+      <c r="I24" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>67</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>54</v>
+      </c>
+      <c r="D25">
+        <v>48</v>
+      </c>
+      <c r="E25">
+        <v>27</v>
+      </c>
+      <c r="H25" s="2">
+        <v>20</v>
+      </c>
+      <c r="I25" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>66</v>
+      </c>
+      <c r="B26">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>44</v>
+      </c>
+      <c r="D26">
+        <v>42</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="H26" s="2">
+        <v>20</v>
+      </c>
+      <c r="I26" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>69</v>
+      </c>
+      <c r="B27">
+        <v>42</v>
+      </c>
+      <c r="C27">
+        <v>52</v>
+      </c>
+      <c r="D27">
+        <v>43</v>
+      </c>
+      <c r="E27">
+        <v>29</v>
+      </c>
+      <c r="H27" s="2">
+        <v>20</v>
+      </c>
+      <c r="I27" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>74</v>
+      </c>
+      <c r="B28">
+        <v>57</v>
+      </c>
+      <c r="C28">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>64</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="H28" s="2">
+        <v>20</v>
+      </c>
+      <c r="I28" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>72</v>
+      </c>
+      <c r="B29">
+        <v>54</v>
+      </c>
+      <c r="C29">
+        <v>49</v>
+      </c>
+      <c r="D29">
+        <v>43</v>
+      </c>
+      <c r="E29">
+        <v>31</v>
+      </c>
+      <c r="H29" s="2">
+        <v>20</v>
+      </c>
+      <c r="I29" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>73</v>
+      </c>
+      <c r="B30">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>41</v>
+      </c>
+      <c r="D30">
+        <v>34</v>
+      </c>
+      <c r="E30">
+        <v>32</v>
+      </c>
+      <c r="H30" s="2">
+        <v>20</v>
+      </c>
+      <c r="I30" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>87</v>
+      </c>
+      <c r="B31">
+        <v>49</v>
+      </c>
+      <c r="C31">
+        <v>49</v>
+      </c>
+      <c r="D31">
+        <v>34</v>
+      </c>
+      <c r="E31">
+        <v>33</v>
+      </c>
+      <c r="H31" s="2">
+        <v>20</v>
+      </c>
+      <c r="I31" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>65</v>
+      </c>
+      <c r="B32">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>41</v>
+      </c>
+      <c r="D32">
+        <v>50</v>
+      </c>
+      <c r="E32">
+        <v>37</v>
+      </c>
+      <c r="H32" s="2">
+        <v>40</v>
+      </c>
+      <c r="I32" s="2">
         <v>0</v>
       </c>
-      <c r="I18">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>65</v>
+      </c>
+      <c r="B33">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>42</v>
+      </c>
+      <c r="D33">
+        <v>45</v>
+      </c>
+      <c r="E33">
+        <v>38</v>
+      </c>
+      <c r="H33" s="2">
+        <v>40</v>
+      </c>
+      <c r="I33" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>51</v>
+      </c>
+      <c r="C34">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>47</v>
+      </c>
+      <c r="E34">
+        <v>39</v>
+      </c>
+      <c r="H34" s="2">
+        <v>40</v>
+      </c>
+      <c r="I34" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>52</v>
+      </c>
+      <c r="D35">
+        <v>46</v>
+      </c>
+      <c r="E35">
+        <v>40</v>
+      </c>
+      <c r="H35" s="2">
+        <v>40</v>
+      </c>
+      <c r="I35" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>70</v>
+      </c>
+      <c r="B36">
+        <v>45</v>
+      </c>
+      <c r="C36">
+        <v>42</v>
+      </c>
+      <c r="D36">
+        <v>49</v>
+      </c>
+      <c r="E36">
+        <v>41</v>
+      </c>
+      <c r="H36" s="2">
+        <v>40</v>
+      </c>
+      <c r="I36" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>40</v>
+      </c>
+      <c r="C37">
+        <v>41</v>
+      </c>
+      <c r="D37">
+        <v>48</v>
+      </c>
+      <c r="E37">
+        <v>42</v>
+      </c>
+      <c r="H37" s="2">
+        <v>40</v>
+      </c>
+      <c r="I37" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>58</v>
+      </c>
+      <c r="C38">
+        <v>42</v>
+      </c>
+      <c r="D38">
+        <v>42</v>
+      </c>
+      <c r="E38">
+        <v>43</v>
+      </c>
+      <c r="H38" s="2">
+        <v>40</v>
+      </c>
+      <c r="I38" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>72</v>
+      </c>
+      <c r="B39">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>44</v>
+      </c>
+      <c r="E39">
+        <v>44</v>
+      </c>
+      <c r="H39" s="2">
+        <v>40</v>
+      </c>
+      <c r="I39" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>73</v>
+      </c>
+      <c r="B40">
+        <v>48</v>
+      </c>
+      <c r="C40">
+        <v>46</v>
+      </c>
+      <c r="D40">
+        <v>42</v>
+      </c>
+      <c r="E40">
+        <v>45</v>
+      </c>
+      <c r="H40" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>75</v>
+      </c>
+      <c r="B41">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>48</v>
+      </c>
+      <c r="D41">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>46</v>
+      </c>
+      <c r="H41" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>44</v>
+      </c>
+      <c r="D42">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>47</v>
+      </c>
+      <c r="H42" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>73</v>
+      </c>
+      <c r="B43">
+        <v>53</v>
+      </c>
+      <c r="C43">
+        <v>41</v>
+      </c>
+      <c r="D43">
+        <v>47</v>
+      </c>
+      <c r="E43">
+        <v>48</v>
+      </c>
+      <c r="H43" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>74</v>
+      </c>
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>41</v>
+      </c>
+      <c r="D44">
+        <v>55</v>
+      </c>
+      <c r="E44">
+        <v>49</v>
+      </c>
+      <c r="H44" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>50</v>
+      </c>
+      <c r="H45" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>69</v>
+      </c>
+      <c r="B46">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>47</v>
+      </c>
+      <c r="D46">
+        <v>41</v>
+      </c>
+      <c r="E46">
+        <v>51</v>
+      </c>
+      <c r="H46" s="2">
+        <v>40</v>
+      </c>
+      <c r="I46" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>69</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>48</v>
+      </c>
+      <c r="E47">
+        <v>52</v>
+      </c>
+      <c r="H47" s="2">
+        <v>60</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>68</v>
+      </c>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="C48">
+        <v>49</v>
+      </c>
+      <c r="D48">
+        <v>44</v>
+      </c>
+      <c r="E48">
+        <v>53</v>
+      </c>
+      <c r="H48" s="2">
+        <v>60</v>
+      </c>
+      <c r="I48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>68</v>
+      </c>
+      <c r="B49">
+        <v>38</v>
+      </c>
+      <c r="C49">
+        <v>47</v>
+      </c>
+      <c r="D49">
+        <v>44</v>
+      </c>
+      <c r="E49">
+        <v>54</v>
+      </c>
+      <c r="H49" s="2">
+        <v>60</v>
+      </c>
+      <c r="I49" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>71</v>
+      </c>
+      <c r="B50">
+        <v>45</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <v>46</v>
+      </c>
+      <c r="E50">
+        <v>55</v>
+      </c>
+      <c r="H50" s="2">
+        <v>60</v>
+      </c>
+      <c r="I50" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>73</v>
+      </c>
+      <c r="B51">
+        <v>42</v>
+      </c>
+      <c r="C51">
+        <v>46</v>
+      </c>
+      <c r="D51">
+        <v>43</v>
+      </c>
+      <c r="E51">
+        <v>56</v>
+      </c>
+      <c r="H51" s="2">
+        <v>60</v>
+      </c>
+      <c r="I51" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>71</v>
+      </c>
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>49</v>
+      </c>
+      <c r="D52">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>57</v>
+      </c>
+      <c r="H52" s="2">
+        <v>60</v>
+      </c>
+      <c r="I52" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>74</v>
+      </c>
+      <c r="B53">
+        <v>49</v>
+      </c>
+      <c r="C53">
+        <v>51</v>
+      </c>
+      <c r="D53">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>58</v>
+      </c>
+      <c r="H53" s="2">
+        <v>60</v>
+      </c>
+      <c r="I53" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>69</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <v>46</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>59</v>
+      </c>
+      <c r="H54" s="2">
+        <v>60</v>
+      </c>
+      <c r="I54" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>72</v>
+      </c>
+      <c r="B55">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>52</v>
+      </c>
+      <c r="D55">
+        <v>45</v>
+      </c>
+      <c r="E55">
+        <v>60</v>
+      </c>
+      <c r="H55" s="2">
+        <v>60</v>
+      </c>
+      <c r="I55" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="D56">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>61</v>
+      </c>
+      <c r="H56" s="2">
+        <v>60</v>
+      </c>
+      <c r="I56" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>71</v>
+      </c>
+      <c r="B57">
+        <v>47</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>44</v>
+      </c>
+      <c r="E57">
+        <v>62</v>
+      </c>
+      <c r="H57" s="2">
+        <v>60</v>
+      </c>
+      <c r="I57" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>73</v>
+      </c>
+      <c r="B58">
+        <v>52</v>
+      </c>
+      <c r="C58">
+        <v>49</v>
+      </c>
+      <c r="D58">
+        <v>51</v>
+      </c>
+      <c r="E58">
+        <v>63</v>
+      </c>
+      <c r="H58" s="2">
+        <v>60</v>
+      </c>
+      <c r="I58" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>45</v>
+      </c>
+      <c r="C59">
+        <v>49</v>
+      </c>
+      <c r="D59">
+        <v>43</v>
+      </c>
+      <c r="E59">
+        <v>64</v>
+      </c>
+      <c r="H59" s="2">
+        <v>60</v>
+      </c>
+      <c r="I59" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>69</v>
+      </c>
+      <c r="B60">
+        <v>48</v>
+      </c>
+      <c r="C60">
+        <v>37</v>
+      </c>
+      <c r="D60">
+        <v>38</v>
+      </c>
+      <c r="E60">
+        <v>65</v>
+      </c>
+      <c r="H60" s="2">
+        <v>60</v>
+      </c>
+      <c r="I60" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>75</v>
+      </c>
+      <c r="B61">
+        <v>46</v>
+      </c>
+      <c r="C61">
+        <v>37</v>
+      </c>
+      <c r="D61">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>66</v>
+      </c>
+      <c r="H61" s="2">
+        <v>60</v>
+      </c>
+      <c r="I61" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>67</v>
+      </c>
+      <c r="H62" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>68</v>
+      </c>
+      <c r="H63" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>69</v>
+      </c>
+      <c r="H64" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>70</v>
+      </c>
+      <c r="H65" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>71</v>
+      </c>
+      <c r="H66" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>72</v>
+      </c>
+      <c r="H67" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>73</v>
+      </c>
+      <c r="H68" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>74</v>
+      </c>
+      <c r="H69" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>75</v>
+      </c>
+      <c r="H70" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>76</v>
+      </c>
+      <c r="H71" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>77</v>
+      </c>
+      <c r="H72" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>78</v>
+      </c>
+      <c r="H73" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>79</v>
+      </c>
+      <c r="H74" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>80</v>
+      </c>
+      <c r="H75" s="2">
+        <v>80</v>
+      </c>
+      <c r="I75" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>81</v>
+      </c>
+      <c r="H76" s="2">
+        <v>80</v>
+      </c>
+      <c r="I76" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>82</v>
+      </c>
+      <c r="H77" s="2">
+        <v>100</v>
+      </c>
+      <c r="I77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>83</v>
+      </c>
+      <c r="H78" s="2">
+        <v>100</v>
+      </c>
+      <c r="I78" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>84</v>
+      </c>
+      <c r="H79" s="2">
+        <v>100</v>
+      </c>
+      <c r="I79" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>85</v>
+      </c>
+      <c r="H80" s="2">
+        <v>100</v>
+      </c>
+      <c r="I80" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>86</v>
+      </c>
+      <c r="H81" s="2">
+        <v>100</v>
+      </c>
+      <c r="I81" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>87</v>
+      </c>
+      <c r="H82" s="2">
+        <v>100</v>
+      </c>
+      <c r="I82" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>88</v>
+      </c>
+      <c r="H83" s="2">
+        <v>100</v>
+      </c>
+      <c r="I83" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>89</v>
+      </c>
+      <c r="H84" s="2">
+        <v>100</v>
+      </c>
+      <c r="I84" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>90</v>
+      </c>
+      <c r="H85" s="2">
+        <v>100</v>
+      </c>
+      <c r="I85" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>91</v>
+      </c>
+      <c r="H86" s="2">
+        <v>100</v>
+      </c>
+      <c r="I86" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>92</v>
+      </c>
+      <c r="H87" s="2">
+        <v>100</v>
+      </c>
+      <c r="I87" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>93</v>
+      </c>
+      <c r="H88" s="2">
+        <v>100</v>
+      </c>
+      <c r="I88" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>94</v>
+      </c>
+      <c r="H89" s="2">
+        <v>100</v>
+      </c>
+      <c r="I89" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>95</v>
+      </c>
+      <c r="H90" s="2">
+        <v>100</v>
+      </c>
+      <c r="I90" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>96</v>
+      </c>
+      <c r="H91" s="2">
+        <v>100</v>
+      </c>
+      <c r="I91" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>97</v>
+      </c>
+      <c r="H92" s="2">
+        <v>120</v>
+      </c>
+      <c r="I92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>98</v>
+      </c>
+      <c r="H93" s="2">
+        <v>120</v>
+      </c>
+      <c r="I93" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>99</v>
+      </c>
+      <c r="H94" s="2">
+        <v>120</v>
+      </c>
+      <c r="I94" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>100</v>
+      </c>
+      <c r="H95" s="2">
+        <v>120</v>
+      </c>
+      <c r="I95" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>101</v>
+      </c>
+      <c r="H96" s="2">
+        <v>120</v>
+      </c>
+      <c r="I96" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>102</v>
+      </c>
+      <c r="H97" s="2">
+        <v>120</v>
+      </c>
+      <c r="I97" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>103</v>
+      </c>
+      <c r="H98" s="2">
+        <v>120</v>
+      </c>
+      <c r="I98" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>104</v>
+      </c>
+      <c r="H99" s="2">
+        <v>120</v>
+      </c>
+      <c r="I99" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>105</v>
+      </c>
+      <c r="H100" s="2">
+        <v>120</v>
+      </c>
+      <c r="I100" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>106</v>
+      </c>
+      <c r="H101" s="2">
+        <v>120</v>
+      </c>
+      <c r="I101" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>107</v>
+      </c>
+      <c r="H102" s="2">
+        <v>120</v>
+      </c>
+      <c r="I102" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>108</v>
+      </c>
+      <c r="H103" s="2">
+        <v>120</v>
+      </c>
+      <c r="I103" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H104" s="2">
+        <v>120</v>
+      </c>
+      <c r="I104" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H105" s="2">
+        <v>120</v>
+      </c>
+      <c r="I105" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H106" s="2">
+        <v>120</v>
+      </c>
+      <c r="I106" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H107" s="2">
+        <v>140</v>
+      </c>
+      <c r="I107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H108" s="2">
+        <v>140</v>
+      </c>
+      <c r="I108" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H109" s="2">
+        <v>140</v>
+      </c>
+      <c r="I109" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H110" s="2">
+        <v>140</v>
+      </c>
+      <c r="I110" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H111" s="2">
+        <v>140</v>
+      </c>
+      <c r="I111" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="H112" s="2">
+        <v>140</v>
+      </c>
+      <c r="I112" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H113" s="2">
+        <v>140</v>
+      </c>
+      <c r="I113" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H114" s="2">
+        <v>140</v>
+      </c>
+      <c r="I114" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H115" s="2">
+        <v>140</v>
+      </c>
+      <c r="I115" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H116" s="2">
+        <v>140</v>
+      </c>
+      <c r="I116" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H117" s="2">
+        <v>140</v>
+      </c>
+      <c r="I117" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H118" s="2">
+        <v>140</v>
+      </c>
+      <c r="I118" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H119" s="2">
+        <v>140</v>
+      </c>
+      <c r="I119" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H120" s="2">
+        <v>140</v>
+      </c>
+      <c r="I120" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="121" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H121" s="2">
+        <v>140</v>
+      </c>
+      <c r="I121" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="122" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H122" s="2">
         <v>160</v>
       </c>
-    </row>
-    <row r="19" spans="7:9">
-      <c r="G19">
-        <v>18</v>
-      </c>
-      <c r="H19">
+      <c r="I122" s="2">
         <v>0</v>
       </c>
-      <c r="I19">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="20" spans="7:9">
-      <c r="G20">
-        <v>19</v>
-      </c>
-      <c r="H20">
+    </row>
+    <row r="123" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H123" s="2">
+        <v>160</v>
+      </c>
+      <c r="I123" s="2">
         <v>10</v>
       </c>
-      <c r="I20">
+    </row>
+    <row r="124" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H124" s="2">
+        <v>160</v>
+      </c>
+      <c r="I124" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H125" s="2">
+        <v>160</v>
+      </c>
+      <c r="I125" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H126" s="2">
+        <v>160</v>
+      </c>
+      <c r="I126" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H127" s="2">
+        <v>160</v>
+      </c>
+      <c r="I127" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H128" s="2">
+        <v>160</v>
+      </c>
+      <c r="I128" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H129" s="2">
+        <v>160</v>
+      </c>
+      <c r="I129" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="130" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H130" s="2">
+        <v>160</v>
+      </c>
+      <c r="I130" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="131" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H131" s="2">
+        <v>160</v>
+      </c>
+      <c r="I131" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="132" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H132" s="2">
+        <v>160</v>
+      </c>
+      <c r="I132" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="133" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H133" s="2">
+        <v>160</v>
+      </c>
+      <c r="I133" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="134" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H134" s="2">
+        <v>160</v>
+      </c>
+      <c r="I134" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H135" s="2">
+        <v>160</v>
+      </c>
+      <c r="I135" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="136" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H136" s="2">
+        <v>160</v>
+      </c>
+      <c r="I136" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H137" s="2">
+        <v>180</v>
+      </c>
+      <c r="I137" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="7:9">
-      <c r="G21">
+    <row r="138" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H138" s="2">
+        <v>180</v>
+      </c>
+      <c r="I138" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H139" s="2">
+        <v>180</v>
+      </c>
+      <c r="I139" s="2">
         <v>20</v>
       </c>
-      <c r="H21">
+    </row>
+    <row r="140" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H140" s="2">
+        <v>180</v>
+      </c>
+      <c r="I140" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H141" s="2">
+        <v>180</v>
+      </c>
+      <c r="I141" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H142" s="2">
+        <v>180</v>
+      </c>
+      <c r="I142" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H143" s="2">
+        <v>180</v>
+      </c>
+      <c r="I143" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H144" s="2">
+        <v>180</v>
+      </c>
+      <c r="I144" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="145" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H145" s="2">
+        <v>180</v>
+      </c>
+      <c r="I145" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="146" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H146" s="2">
+        <v>180</v>
+      </c>
+      <c r="I146" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="147" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H147" s="2">
+        <v>180</v>
+      </c>
+      <c r="I147" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H148" s="2">
+        <v>180</v>
+      </c>
+      <c r="I148" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="149" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H149" s="2">
+        <v>180</v>
+      </c>
+      <c r="I149" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H150" s="2">
+        <v>180</v>
+      </c>
+      <c r="I150" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="151" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H151" s="2">
+        <v>180</v>
+      </c>
+      <c r="I151" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="152" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H152" s="2">
+        <v>200</v>
+      </c>
+      <c r="I152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H153" s="2">
+        <v>200</v>
+      </c>
+      <c r="I153" s="2">
         <v>10</v>
       </c>
-      <c r="I21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="7:9">
-      <c r="G22">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
+    </row>
+    <row r="154" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H154" s="2">
+        <v>200</v>
+      </c>
+      <c r="I154" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="7:9">
-      <c r="G23">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
+    <row r="155" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H155" s="2">
+        <v>200</v>
+      </c>
+      <c r="I155" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="7:9">
-      <c r="G24">
-        <v>23</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="7:9">
-      <c r="G25">
-        <v>24</v>
-      </c>
-      <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
+    <row r="156" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H156" s="2">
+        <v>200</v>
+      </c>
+      <c r="I156" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="157" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H157" s="2">
+        <v>200</v>
+      </c>
+      <c r="I157" s="2">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="7:9">
-      <c r="G26">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
+    <row r="158" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H158" s="2">
+        <v>200</v>
+      </c>
+      <c r="I158" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="7:9">
-      <c r="G27">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
+    <row r="159" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H159" s="2">
+        <v>200</v>
+      </c>
+      <c r="I159" s="2">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="7:9">
-      <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
+    <row r="160" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H160" s="2">
+        <v>200</v>
+      </c>
+      <c r="I160" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="7:9">
-      <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
+    <row r="161" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H161" s="2">
+        <v>200</v>
+      </c>
+      <c r="I161" s="2">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="7:9">
-      <c r="H30">
-        <v>10</v>
-      </c>
-      <c r="I30">
+    <row r="162" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H162" s="2">
+        <v>200</v>
+      </c>
+      <c r="I162" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="7:9">
-      <c r="H31">
-        <v>10</v>
-      </c>
-      <c r="I31">
+    <row r="163" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H163" s="2">
+        <v>200</v>
+      </c>
+      <c r="I163" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="7:9">
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
+    <row r="164" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H164" s="2">
+        <v>200</v>
+      </c>
+      <c r="I164" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="33" spans="8:9">
-      <c r="H33">
-        <v>10</v>
-      </c>
-      <c r="I33">
+    <row r="165" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H165" s="2">
+        <v>200</v>
+      </c>
+      <c r="I165" s="2">
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="8:9">
-      <c r="H34">
-        <v>10</v>
-      </c>
-      <c r="I34">
+    <row r="166" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H166" s="2">
+        <v>200</v>
+      </c>
+      <c r="I166" s="2">
         <v>140</v>
-      </c>
-    </row>
-    <row r="35" spans="8:9">
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" spans="8:9">
-      <c r="H36">
-        <v>10</v>
-      </c>
-      <c r="I36">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="37" spans="8:9">
-      <c r="H37">
-        <v>10</v>
-      </c>
-      <c r="I37">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="8:9">
-      <c r="H38">
-        <v>20</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="8:9">
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="I39">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="8:9">
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="8:9">
-      <c r="H41">
-        <v>20</v>
-      </c>
-      <c r="I41">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="8:9">
-      <c r="H42">
-        <v>20</v>
-      </c>
-      <c r="I42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="8:9">
-      <c r="H43">
-        <v>20</v>
-      </c>
-      <c r="I43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="8:9">
-      <c r="H44">
-        <v>20</v>
-      </c>
-      <c r="I44">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="45" spans="8:9">
-      <c r="H45">
-        <v>20</v>
-      </c>
-      <c r="I45">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="8:9">
-      <c r="H46">
-        <v>20</v>
-      </c>
-      <c r="I46">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="8:9">
-      <c r="H47">
-        <v>20</v>
-      </c>
-      <c r="I47">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="48" spans="8:9">
-      <c r="H48">
-        <v>20</v>
-      </c>
-      <c r="I48">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="49" spans="8:9">
-      <c r="H49">
-        <v>20</v>
-      </c>
-      <c r="I49">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="8:9">
-      <c r="H50">
-        <v>20</v>
-      </c>
-      <c r="I50">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="8:9">
-      <c r="H51">
-        <v>20</v>
-      </c>
-      <c r="I51">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="52" spans="8:9">
-      <c r="H52">
-        <v>20</v>
-      </c>
-      <c r="I52">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="53" spans="8:9">
-      <c r="H53">
-        <v>20</v>
-      </c>
-      <c r="I53">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="54" spans="8:9">
-      <c r="H54">
-        <v>20</v>
-      </c>
-      <c r="I54">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="55" spans="8:9">
-      <c r="H55">
-        <v>20</v>
-      </c>
-      <c r="I55">
-        <v>170</v>
       </c>
     </row>
   </sheetData>
